--- a/server/src/template/Consolidated_Account_History.xlsx
+++ b/server/src/template/Consolidated_Account_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbelj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8420B973-0CC5-47E4-AB36-34AB4F40693C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB3D9EE-0378-47BC-9B90-DB3378924134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F23695C-EE6A-4489-B5F1-D5D05593C390}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated_Account_History!$A$1:$J$477</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2001,7 +2000,7 @@
   <dimension ref="A1:J477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G485" sqref="G485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>45616</v>
@@ -2104,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>45616</v>
@@ -2136,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>45616</v>
@@ -2168,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>45616</v>
@@ -2200,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>45616</v>
@@ -2232,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>45616</v>
@@ -2264,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>45616</v>
@@ -2296,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>45616</v>
@@ -2328,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>45616</v>
@@ -2360,7 +2359,7 @@
         <v>23</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>45616</v>
@@ -2392,7 +2391,7 @@
         <v>26</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>45616</v>
@@ -2424,7 +2423,7 @@
         <v>29</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>45616</v>
@@ -2456,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>45616</v>
@@ -2488,7 +2487,7 @@
         <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>45616</v>
@@ -2520,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>45616</v>
@@ -2552,7 +2551,7 @@
         <v>19</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <v>45616</v>
@@ -2584,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>45616</v>
@@ -2616,7 +2615,7 @@
         <v>36</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>45616</v>
@@ -2648,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>45616</v>
@@ -2680,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>45616</v>
@@ -2712,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>45616</v>
@@ -2744,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>45616</v>
@@ -2776,7 +2775,7 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>45616</v>
@@ -2808,7 +2807,7 @@
         <v>36</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <v>45616</v>
@@ -2840,7 +2839,7 @@
         <v>19</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>45616</v>
@@ -2872,7 +2871,7 @@
         <v>40</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>45616</v>
@@ -2904,7 +2903,7 @@
         <v>42</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
         <v>45616</v>
@@ -2936,7 +2935,7 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>45616</v>
@@ -2968,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
         <v>45616</v>
@@ -3000,7 +2999,7 @@
         <v>45</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>45616</v>
@@ -3032,7 +3031,7 @@
         <v>48</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
         <v>45616</v>
@@ -3064,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>45616</v>
@@ -3096,7 +3095,7 @@
         <v>40</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>45616</v>
@@ -3128,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>45616</v>
@@ -3160,7 +3159,7 @@
         <v>36</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>45616</v>
@@ -3192,7 +3191,7 @@
         <v>53</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>45616</v>
@@ -3224,7 +3223,7 @@
         <v>16</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
         <v>45616</v>
@@ -3256,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
         <v>45616</v>
@@ -3288,7 +3287,7 @@
         <v>56</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
         <v>45616</v>
@@ -3320,7 +3319,7 @@
         <v>59</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>45616</v>
@@ -3352,7 +3351,7 @@
         <v>23</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1">
         <v>45616</v>
@@ -3384,7 +3383,7 @@
         <v>62</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
         <v>45616</v>
@@ -3416,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1">
         <v>45616</v>
@@ -3448,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <v>45616</v>
@@ -3480,7 +3479,7 @@
         <v>66</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <v>45616</v>
@@ -3512,7 +3511,7 @@
         <v>32</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1">
         <v>45616</v>
@@ -3544,7 +3543,7 @@
         <v>36</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
         <v>45616</v>
@@ -3576,7 +3575,7 @@
         <v>70</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
         <v>45616</v>
@@ -3608,7 +3607,7 @@
         <v>73</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
         <v>45616</v>
@@ -3640,7 +3639,7 @@
         <v>40</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
         <v>45616</v>
@@ -3672,7 +3671,7 @@
         <v>40</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1">
         <v>45616</v>
@@ -3704,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1">
         <v>45616</v>
@@ -3736,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
         <v>45616</v>
@@ -3768,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1">
         <v>45616</v>
@@ -3800,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56" s="1">
         <v>45616</v>
@@ -3832,7 +3831,7 @@
         <v>36</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
         <v>45616</v>
@@ -3864,7 +3863,7 @@
         <v>75</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" s="1">
         <v>45616</v>
@@ -3896,7 +3895,7 @@
         <v>70</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1">
         <v>45616</v>
@@ -3928,7 +3927,7 @@
         <v>40</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1">
         <v>45616</v>
@@ -3960,7 +3959,7 @@
         <v>40</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1">
         <v>45616</v>
@@ -3992,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
         <v>45616</v>
@@ -4024,7 +4023,7 @@
         <v>73</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1">
         <v>45616</v>
@@ -4056,7 +4055,7 @@
         <v>40</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1">
         <v>45616</v>
@@ -4088,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="1">
         <v>45616</v>
@@ -4120,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <v>45616</v>
@@ -4152,7 +4151,7 @@
         <v>36</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>45616</v>
@@ -4248,7 +4247,7 @@
         <v>32</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" s="1">
         <v>45616</v>
@@ -4312,7 +4311,7 @@
         <v>36</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>45616</v>
@@ -4344,7 +4343,7 @@
         <v>79</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" s="1">
         <v>45616</v>
@@ -4376,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
         <v>45616</v>
@@ -4408,7 +4407,7 @@
         <v>70</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
         <v>45616</v>
@@ -4440,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
         <v>45616</v>
@@ -4472,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
         <v>45616</v>
@@ -4504,7 +4503,7 @@
         <v>12</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>45616</v>
@@ -4536,7 +4535,7 @@
         <v>82</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <v>45616</v>
@@ -4568,7 +4567,7 @@
         <v>53</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
         <v>45616</v>
@@ -4600,7 +4599,7 @@
         <v>59</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>45616</v>
@@ -4632,7 +4631,7 @@
         <v>23</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" s="1">
         <v>45616</v>
@@ -4664,7 +4663,7 @@
         <v>85</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" s="1">
         <v>45616</v>
@@ -4696,7 +4695,7 @@
         <v>86</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" s="1">
         <v>45616</v>
@@ -4728,7 +4727,7 @@
         <v>86</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" s="1">
         <v>45616</v>
@@ -4760,7 +4759,7 @@
         <v>29</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" s="1">
         <v>45616</v>
@@ -4792,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87" s="1">
         <v>45616</v>
@@ -4824,7 +4823,7 @@
         <v>89</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" s="1">
         <v>45616</v>
@@ -4856,7 +4855,7 @@
         <v>89</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" s="1">
         <v>45616</v>
@@ -4888,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90" s="1">
         <v>45616</v>
@@ -4920,7 +4919,7 @@
         <v>92</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91" s="1">
         <v>45616</v>
@@ -4952,7 +4951,7 @@
         <v>85</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I92" s="1">
         <v>45616</v>
@@ -4984,7 +4983,7 @@
         <v>86</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93" s="1">
         <v>45616</v>
@@ -5016,7 +5015,7 @@
         <v>70</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" s="1">
         <v>45616</v>
@@ -5048,7 +5047,7 @@
         <v>79</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95" s="1">
         <v>45616</v>
@@ -5080,7 +5079,7 @@
         <v>23</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
         <v>45616</v>
@@ -5112,7 +5111,7 @@
         <v>98</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97" s="1">
         <v>45616</v>
@@ -5144,7 +5143,7 @@
         <v>23</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" s="1">
         <v>45616</v>
@@ -5176,7 +5175,7 @@
         <v>26</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" s="1">
         <v>45616</v>
@@ -5208,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" s="1">
         <v>45616</v>
@@ -5240,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101" s="1">
         <v>45616</v>
@@ -5272,7 +5271,7 @@
         <v>98</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102" s="1">
         <v>45616</v>
@@ -5304,7 +5303,7 @@
         <v>75</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103" s="1">
         <v>45616</v>
@@ -5336,7 +5335,7 @@
         <v>40</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104" s="1">
         <v>45616</v>
@@ -5368,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105" s="1">
         <v>45616</v>
@@ -5400,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106" s="1">
         <v>45616</v>
@@ -5432,7 +5431,7 @@
         <v>106</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107" s="1">
         <v>45616</v>
@@ -5464,7 +5463,7 @@
         <v>75</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108" s="1">
         <v>45616</v>
@@ -5496,7 +5495,7 @@
         <v>40</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109" s="1">
         <v>45616</v>
@@ -5528,7 +5527,7 @@
         <v>75</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I110" s="1">
         <v>45616</v>
@@ -5560,7 +5559,7 @@
         <v>110</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111" s="1">
         <v>45616</v>
@@ -5592,7 +5591,7 @@
         <v>110</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112" s="1">
         <v>45616</v>
@@ -5624,7 +5623,7 @@
         <v>40</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113" s="1">
         <v>45616</v>
@@ -5656,7 +5655,7 @@
         <v>113</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114" s="1">
         <v>45616</v>
@@ -5688,7 +5687,7 @@
         <v>86</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115" s="1">
         <v>45616</v>
@@ -5720,7 +5719,7 @@
         <v>117</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="1">
         <v>45616</v>
@@ -5752,7 +5751,7 @@
         <v>85</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" s="1">
         <v>45616</v>
@@ -5784,7 +5783,7 @@
         <v>40</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118" s="1">
         <v>45616</v>
@@ -5816,7 +5815,7 @@
         <v>40</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119" s="1">
         <v>45616</v>
@@ -5848,7 +5847,7 @@
         <v>120</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120" s="1">
         <v>45616</v>
@@ -5880,7 +5879,7 @@
         <v>29</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" s="1">
         <v>45616</v>
@@ -5912,7 +5911,7 @@
         <v>6</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122" s="1">
         <v>45616</v>
@@ -5944,7 +5943,7 @@
         <v>23</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" s="1">
         <v>45616</v>
@@ -5976,7 +5975,7 @@
         <v>26</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" s="1">
         <v>45616</v>
@@ -6008,7 +6007,7 @@
         <v>124</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" s="1">
         <v>45616</v>
@@ -6040,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1">
         <v>45616</v>
@@ -6072,7 +6071,7 @@
         <v>40</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127" s="1">
         <v>45616</v>
@@ -6104,7 +6103,7 @@
         <v>127</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" s="1">
         <v>45616</v>
@@ -6136,7 +6135,7 @@
         <v>66</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129" s="1">
         <v>45616</v>
@@ -6168,7 +6167,7 @@
         <v>6</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" s="1">
         <v>45616</v>
@@ -6200,7 +6199,7 @@
         <v>131</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131" s="1">
         <v>45616</v>
@@ -6232,7 +6231,7 @@
         <v>131</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" s="1">
         <v>45616</v>
@@ -6264,7 +6263,7 @@
         <v>40</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133" s="1">
         <v>45616</v>
@@ -6296,7 +6295,7 @@
         <v>29</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134" s="1">
         <v>45616</v>
@@ -6328,7 +6327,7 @@
         <v>132</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135" s="1">
         <v>45616</v>
@@ -6360,7 +6359,7 @@
         <v>98</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136" s="1">
         <v>45616</v>
@@ -6392,7 +6391,7 @@
         <v>40</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137" s="1">
         <v>45616</v>
@@ -6424,7 +6423,7 @@
         <v>132</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138" s="1">
         <v>45616</v>
@@ -6456,7 +6455,7 @@
         <v>135</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139" s="1">
         <v>45616</v>
@@ -6488,7 +6487,7 @@
         <v>135</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140" s="1">
         <v>45616</v>
@@ -6520,7 +6519,7 @@
         <v>40</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141" s="1">
         <v>45616</v>
@@ -6552,7 +6551,7 @@
         <v>135</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142" s="1">
         <v>45616</v>
@@ -6584,7 +6583,7 @@
         <v>120</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143" s="1">
         <v>45616</v>
@@ -6616,7 +6615,7 @@
         <v>120</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I144" s="1">
         <v>45616</v>
@@ -6648,7 +6647,7 @@
         <v>132</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I145" s="1">
         <v>45616</v>
@@ -6680,7 +6679,7 @@
         <v>137</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I146" s="1">
         <v>45616</v>
@@ -6712,7 +6711,7 @@
         <v>140</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147" s="1">
         <v>45616</v>
@@ -6744,7 +6743,7 @@
         <v>137</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I148" s="1">
         <v>45616</v>
@@ -6808,7 +6807,7 @@
         <v>45</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I150" s="1">
         <v>45616</v>
@@ -6872,7 +6871,7 @@
         <v>146</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152" s="1">
         <v>45616</v>
@@ -6904,7 +6903,7 @@
         <v>150</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153" s="1">
         <v>45616</v>
@@ -6936,7 +6935,7 @@
         <v>153</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154" s="1">
         <v>45616</v>
@@ -6968,7 +6967,7 @@
         <v>140</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155" s="1">
         <v>45616</v>
@@ -7000,7 +6999,7 @@
         <v>157</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156" s="1">
         <v>45616</v>
@@ -7032,7 +7031,7 @@
         <v>146</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157" s="1">
         <v>45616</v>
@@ -7064,7 +7063,7 @@
         <v>158</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158" s="1">
         <v>45616</v>
@@ -7096,7 +7095,7 @@
         <v>140</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159" s="1">
         <v>45616</v>
@@ -7128,7 +7127,7 @@
         <v>140</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160" s="1">
         <v>45616</v>
@@ -7160,7 +7159,7 @@
         <v>161</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161" s="1">
         <v>45616</v>
@@ -7224,7 +7223,7 @@
         <v>146</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I163" s="1">
         <v>45616</v>
@@ -7256,7 +7255,7 @@
         <v>140</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164" s="1">
         <v>45616</v>
@@ -7288,7 +7287,7 @@
         <v>166</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165" s="1">
         <v>45616</v>
@@ -7320,7 +7319,7 @@
         <v>169</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166" s="1">
         <v>45616</v>
@@ -7352,7 +7351,7 @@
         <v>29</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I167" s="1">
         <v>45616</v>
@@ -7416,7 +7415,7 @@
         <v>172</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169" s="1">
         <v>45616</v>
@@ -7448,7 +7447,7 @@
         <v>146</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170" s="1">
         <v>45616</v>
@@ -7480,7 +7479,7 @@
         <v>166</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171" s="1">
         <v>45616</v>
@@ -7512,7 +7511,7 @@
         <v>172</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I172" s="1">
         <v>45616</v>
@@ -7544,7 +7543,7 @@
         <v>177</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173" s="1">
         <v>45616</v>
@@ -7576,7 +7575,7 @@
         <v>157</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174" s="1">
         <v>45616</v>
@@ -7608,7 +7607,7 @@
         <v>62</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175" s="1">
         <v>45616</v>
@@ -7640,7 +7639,7 @@
         <v>166</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176" s="1">
         <v>45616</v>
@@ -7672,7 +7671,7 @@
         <v>178</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177" s="1">
         <v>45616</v>
@@ -7704,7 +7703,7 @@
         <v>140</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178" s="1">
         <v>45616</v>
@@ -7768,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180" s="1">
         <v>45616</v>
@@ -7800,7 +7799,7 @@
         <v>166</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181" s="1">
         <v>45616</v>
@@ -7832,7 +7831,7 @@
         <v>161</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182" s="1">
         <v>45616</v>
@@ -7864,7 +7863,7 @@
         <v>158</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183" s="1">
         <v>45616</v>
@@ -7896,7 +7895,7 @@
         <v>184</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184" s="1">
         <v>45616</v>
@@ -7928,7 +7927,7 @@
         <v>185</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185" s="1">
         <v>45616</v>
@@ -7960,7 +7959,7 @@
         <v>161</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I186" s="1">
         <v>45616</v>
@@ -7992,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187" s="1">
         <v>45616</v>
@@ -8024,7 +8023,7 @@
         <v>157</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188" s="1">
         <v>45616</v>
@@ -8056,7 +8055,7 @@
         <v>157</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189" s="1">
         <v>45616</v>
@@ -8088,7 +8087,7 @@
         <v>40</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I190" s="1">
         <v>45616</v>
@@ -8120,7 +8119,7 @@
         <v>178</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191" s="1">
         <v>45616</v>
@@ -8152,7 +8151,7 @@
         <v>29</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I192" s="1">
         <v>45616</v>
@@ -8184,7 +8183,7 @@
         <v>187</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193" s="1">
         <v>45616</v>
@@ -8216,7 +8215,7 @@
         <v>187</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194" s="1">
         <v>45616</v>
@@ -8248,7 +8247,7 @@
         <v>140</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195" s="1">
         <v>45616</v>
@@ -8280,7 +8279,7 @@
         <v>6</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196" s="1">
         <v>45616</v>
@@ -8312,7 +8311,7 @@
         <v>172</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I197" s="1">
         <v>45616</v>
@@ -8344,7 +8343,7 @@
         <v>158</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I198" s="1">
         <v>45616</v>
@@ -8376,7 +8375,7 @@
         <v>9</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I199" s="1">
         <v>45616</v>
@@ -8408,7 +8407,7 @@
         <v>172</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I200" s="1">
         <v>45616</v>
@@ -8440,7 +8439,7 @@
         <v>26</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I201" s="1">
         <v>45616</v>
@@ -8472,7 +8471,7 @@
         <v>9</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202" s="1">
         <v>45616</v>
@@ -8504,7 +8503,7 @@
         <v>178</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I203" s="1">
         <v>45616</v>
@@ -8536,7 +8535,7 @@
         <v>16</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I204" s="1">
         <v>45616</v>
@@ -8568,7 +8567,7 @@
         <v>172</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205" s="1">
         <v>45616</v>
@@ -8600,7 +8599,7 @@
         <v>146</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206" s="1">
         <v>45616</v>
@@ -8632,7 +8631,7 @@
         <v>26</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207" s="1">
         <v>45616</v>
@@ -8664,7 +8663,7 @@
         <v>158</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I208" s="1">
         <v>45616</v>
@@ -8696,7 +8695,7 @@
         <v>158</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I209" s="1">
         <v>45616</v>
@@ -8728,7 +8727,7 @@
         <v>166</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210" s="1">
         <v>45616</v>
@@ -8760,7 +8759,7 @@
         <v>29</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I211" s="1">
         <v>45616</v>
@@ -8792,7 +8791,7 @@
         <v>36</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212" s="1">
         <v>45616</v>
@@ -8824,7 +8823,7 @@
         <v>36</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213" s="1">
         <v>45616</v>
@@ -8856,7 +8855,7 @@
         <v>172</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214" s="1">
         <v>45616</v>
@@ -8888,7 +8887,7 @@
         <v>40</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215" s="1">
         <v>45616</v>
@@ -8920,7 +8919,7 @@
         <v>40</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216" s="1">
         <v>45616</v>
@@ -8952,7 +8951,7 @@
         <v>166</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I217" s="1">
         <v>45616</v>
@@ -8984,7 +8983,7 @@
         <v>166</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I218" s="1">
         <v>45616</v>
@@ -9016,7 +9015,7 @@
         <v>178</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219" s="1">
         <v>45616</v>
@@ -9048,7 +9047,7 @@
         <v>2</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220" s="1">
         <v>45616</v>
@@ -9080,7 +9079,7 @@
         <v>2</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221" s="1">
         <v>45616</v>
@@ -9112,7 +9111,7 @@
         <v>6</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I222" s="1">
         <v>45616</v>
@@ -9144,7 +9143,7 @@
         <v>6</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I223" s="1">
         <v>45616</v>
@@ -9176,7 +9175,7 @@
         <v>36</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224" s="1">
         <v>45616</v>
@@ -9208,7 +9207,7 @@
         <v>157</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I225" s="1">
         <v>45616</v>
@@ -9240,7 +9239,7 @@
         <v>172</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226" s="1">
         <v>45616</v>
@@ -9272,7 +9271,7 @@
         <v>146</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227" s="1">
         <v>45616</v>
@@ -9304,7 +9303,7 @@
         <v>158</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I228" s="1">
         <v>45616</v>
@@ -9336,7 +9335,7 @@
         <v>9</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229" s="1">
         <v>45616</v>
@@ -9368,7 +9367,7 @@
         <v>29</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I230" s="1">
         <v>45616</v>
@@ -9400,7 +9399,7 @@
         <v>45</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I231" s="1">
         <v>45616</v>
@@ -9432,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I232" s="1">
         <v>45616</v>
@@ -9496,7 +9495,7 @@
         <v>140</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I234" s="1">
         <v>45616</v>
@@ -9528,7 +9527,7 @@
         <v>172</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I235" s="1">
         <v>45616</v>
@@ -9592,7 +9591,7 @@
         <v>6</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237" s="1">
         <v>45616</v>
@@ -9624,7 +9623,7 @@
         <v>36</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238" s="1">
         <v>45616</v>
@@ -9656,7 +9655,7 @@
         <v>157</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I239" s="1">
         <v>45616</v>
@@ -9688,7 +9687,7 @@
         <v>146</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I240" s="1">
         <v>45616</v>
@@ -9720,7 +9719,7 @@
         <v>158</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241" s="1">
         <v>45616</v>
@@ -9752,7 +9751,7 @@
         <v>29</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242" s="1">
         <v>45616</v>
@@ -9784,7 +9783,7 @@
         <v>6</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243" s="1">
         <v>45616</v>
@@ -9816,7 +9815,7 @@
         <v>29</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244" s="1">
         <v>45616</v>
@@ -9848,7 +9847,7 @@
         <v>16</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I245" s="1">
         <v>45616</v>
@@ -9880,7 +9879,7 @@
         <v>26</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I246" s="1">
         <v>45616</v>
@@ -9912,7 +9911,7 @@
         <v>26</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I247" s="1">
         <v>45616</v>
@@ -9944,7 +9943,7 @@
         <v>6</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I248" s="1">
         <v>45616</v>
@@ -9976,7 +9975,7 @@
         <v>36</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I249" s="1">
         <v>45616</v>
@@ -10008,7 +10007,7 @@
         <v>157</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250" s="1">
         <v>45616</v>
@@ -10040,7 +10039,7 @@
         <v>26</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251" s="1">
         <v>45616</v>
@@ -10072,7 +10071,7 @@
         <v>177</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I252" s="1">
         <v>45616</v>
@@ -10104,7 +10103,7 @@
         <v>177</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I253" s="1">
         <v>45616</v>
@@ -10136,7 +10135,7 @@
         <v>177</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I254" s="1">
         <v>45616</v>
@@ -10168,7 +10167,7 @@
         <v>16</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I255" s="1">
         <v>45616</v>
@@ -10200,7 +10199,7 @@
         <v>19</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I256" s="1">
         <v>45616</v>
@@ -10232,7 +10231,7 @@
         <v>19</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257" s="1">
         <v>45616</v>
@@ -10264,7 +10263,7 @@
         <v>19</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I258" s="1">
         <v>45616</v>
@@ -10296,7 +10295,7 @@
         <v>40</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I259" s="1">
         <v>45616</v>
@@ -10328,7 +10327,7 @@
         <v>177</v>
       </c>
       <c r="H260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I260" s="1">
         <v>45616</v>
@@ -10360,7 +10359,7 @@
         <v>19</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I261" s="1">
         <v>45616</v>
@@ -10392,7 +10391,7 @@
         <v>40</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I262" s="1">
         <v>45616</v>
@@ -10424,7 +10423,7 @@
         <v>65</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263" s="1">
         <v>45616</v>
@@ -10456,7 +10455,7 @@
         <v>202</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264" s="1">
         <v>45616</v>
@@ -10488,7 +10487,7 @@
         <v>19</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265" s="1">
         <v>45616</v>
@@ -10520,7 +10519,7 @@
         <v>19</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266" s="1">
         <v>45616</v>
@@ -10552,7 +10551,7 @@
         <v>40</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I267" s="1">
         <v>45616</v>
@@ -10584,7 +10583,7 @@
         <v>9</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I268" s="1">
         <v>45616</v>
@@ -10616,7 +10615,7 @@
         <v>6</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I269" s="1">
         <v>45616</v>
@@ -10648,7 +10647,7 @@
         <v>75</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I270" s="1">
         <v>45616</v>
@@ -10680,7 +10679,7 @@
         <v>40</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271" s="1">
         <v>45616</v>
@@ -10712,7 +10711,7 @@
         <v>45</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I272" s="1">
         <v>45616</v>
@@ -10744,7 +10743,7 @@
         <v>36</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I273" s="1">
         <v>45616</v>
@@ -10776,7 +10775,7 @@
         <v>40</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274" s="1">
         <v>45616</v>
@@ -10808,7 +10807,7 @@
         <v>85</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I275" s="1">
         <v>45616</v>
@@ -10840,7 +10839,7 @@
         <v>208</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276" s="1">
         <v>45616</v>
@@ -10872,7 +10871,7 @@
         <v>131</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I277" s="1">
         <v>45616</v>
@@ -10904,7 +10903,7 @@
         <v>211</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I278" s="1">
         <v>45616</v>
@@ -10936,7 +10935,7 @@
         <v>85</v>
       </c>
       <c r="H279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I279" s="1">
         <v>45616</v>
@@ -11000,7 +10999,7 @@
         <v>214</v>
       </c>
       <c r="H281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I281" s="1">
         <v>45616</v>
@@ -11032,7 +11031,7 @@
         <v>218</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I282" s="1">
         <v>45616</v>
@@ -11064,7 +11063,7 @@
         <v>221</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I283" s="1">
         <v>45616</v>
@@ -11096,7 +11095,7 @@
         <v>224</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I284" s="1">
         <v>45616</v>
@@ -11128,7 +11127,7 @@
         <v>221</v>
       </c>
       <c r="H285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I285" s="1">
         <v>45616</v>
@@ -11192,7 +11191,7 @@
         <v>231</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I287" s="1">
         <v>45616</v>
@@ -11224,7 +11223,7 @@
         <v>235</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I288" s="1">
         <v>45616</v>
@@ -11256,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="H289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I289" s="1">
         <v>45616</v>
@@ -11288,7 +11287,7 @@
         <v>2</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I290" s="1">
         <v>45616</v>
@@ -11320,7 +11319,7 @@
         <v>36</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I291" s="1">
         <v>45616</v>
@@ -11352,7 +11351,7 @@
         <v>36</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I292" s="1">
         <v>45616</v>
@@ -11384,7 +11383,7 @@
         <v>238</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I293" s="1">
         <v>45616</v>
@@ -11480,7 +11479,7 @@
         <v>36</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296" s="1">
         <v>45616</v>
@@ -11512,7 +11511,7 @@
         <v>36</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I297" s="1">
         <v>45616</v>
@@ -11544,7 +11543,7 @@
         <v>36</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I298" s="1">
         <v>45616</v>
@@ -11576,7 +11575,7 @@
         <v>36</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I299" s="1">
         <v>45616</v>
@@ -11608,7 +11607,7 @@
         <v>36</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300" s="1">
         <v>45616</v>
@@ -11640,7 +11639,7 @@
         <v>244</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I301" s="1">
         <v>45616</v>
@@ -11672,7 +11671,7 @@
         <v>36</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I302" s="1">
         <v>45616</v>
@@ -11704,7 +11703,7 @@
         <v>36</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I303" s="1">
         <v>45616</v>
@@ -11736,7 +11735,7 @@
         <v>247</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I304" s="1">
         <v>45616</v>
@@ -11768,7 +11767,7 @@
         <v>247</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I305" s="1">
         <v>45616</v>
@@ -11800,7 +11799,7 @@
         <v>247</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I306" s="1">
         <v>45616</v>
@@ -11832,7 +11831,7 @@
         <v>238</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I307" s="1">
         <v>45616</v>
@@ -11864,7 +11863,7 @@
         <v>247</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I308" s="1">
         <v>45616</v>
@@ -11896,7 +11895,7 @@
         <v>247</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I309" s="1">
         <v>45616</v>
@@ -11928,7 +11927,7 @@
         <v>238</v>
       </c>
       <c r="H310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I310" s="1">
         <v>45616</v>
@@ -11960,7 +11959,7 @@
         <v>250</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311" s="1">
         <v>45616</v>
@@ -11992,7 +11991,7 @@
         <v>250</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I312" s="1">
         <v>45616</v>
@@ -12024,7 +12023,7 @@
         <v>247</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313" s="1">
         <v>45616</v>
@@ -12056,7 +12055,7 @@
         <v>36</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I314" s="1">
         <v>45616</v>
@@ -12088,7 +12087,7 @@
         <v>187</v>
       </c>
       <c r="H315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I315" s="1">
         <v>45616</v>
@@ -12120,7 +12119,7 @@
         <v>253</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I316" s="1">
         <v>45616</v>
@@ -12152,7 +12151,7 @@
         <v>187</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317" s="1">
         <v>45616</v>
@@ -12184,7 +12183,7 @@
         <v>247</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I318" s="1">
         <v>45616</v>
@@ -12216,7 +12215,7 @@
         <v>62</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319" s="1">
         <v>45616</v>
@@ -12248,7 +12247,7 @@
         <v>36</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I320" s="1">
         <v>45616</v>
@@ -12280,7 +12279,7 @@
         <v>2</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I321" s="1">
         <v>45616</v>
@@ -12312,7 +12311,7 @@
         <v>36</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I322" s="1">
         <v>45616</v>
@@ -12344,7 +12343,7 @@
         <v>257</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I323" s="1">
         <v>45616</v>
@@ -12376,7 +12375,7 @@
         <v>85</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I324" s="1">
         <v>45616</v>
@@ -12408,7 +12407,7 @@
         <v>257</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I325" s="1">
         <v>45616</v>
@@ -12440,7 +12439,7 @@
         <v>257</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I326" s="1">
         <v>45616</v>
@@ -12472,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="H327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I327" s="1">
         <v>45616</v>
@@ -12504,7 +12503,7 @@
         <v>106</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I328" s="1">
         <v>45616</v>
@@ -12568,7 +12567,7 @@
         <v>247</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I330" s="1">
         <v>45616</v>
@@ -12632,7 +12631,7 @@
         <v>250</v>
       </c>
       <c r="H332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I332" s="1">
         <v>45616</v>
@@ -12664,7 +12663,7 @@
         <v>153</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I333" s="1">
         <v>45616</v>
@@ -12696,7 +12695,7 @@
         <v>36</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I334" s="1">
         <v>45616</v>
@@ -12728,7 +12727,7 @@
         <v>257</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I335" s="1">
         <v>45616</v>
@@ -12760,7 +12759,7 @@
         <v>238</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I336" s="1">
         <v>45616</v>
@@ -12792,7 +12791,7 @@
         <v>247</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I337" s="1">
         <v>45616</v>
@@ -12824,7 +12823,7 @@
         <v>266</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I338" s="1">
         <v>45616</v>
@@ -12856,7 +12855,7 @@
         <v>257</v>
       </c>
       <c r="H339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I339" s="1">
         <v>45616</v>
@@ -12888,7 +12887,7 @@
         <v>269</v>
       </c>
       <c r="H340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I340" s="1">
         <v>45616</v>
@@ -12920,7 +12919,7 @@
         <v>269</v>
       </c>
       <c r="H341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I341" s="1">
         <v>45616</v>
@@ -12952,7 +12951,7 @@
         <v>272</v>
       </c>
       <c r="H342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I342" s="1">
         <v>45616</v>
@@ -12984,7 +12983,7 @@
         <v>36</v>
       </c>
       <c r="H343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I343" s="1">
         <v>45616</v>
@@ -13016,7 +13015,7 @@
         <v>274</v>
       </c>
       <c r="H344">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I344" s="1">
         <v>45616</v>
@@ -13048,7 +13047,7 @@
         <v>275</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I345" s="1">
         <v>45616</v>
@@ -13080,7 +13079,7 @@
         <v>75</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346" s="1">
         <v>45616</v>
@@ -13144,7 +13143,7 @@
         <v>277</v>
       </c>
       <c r="H348">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I348" s="1">
         <v>45616</v>
@@ -13176,7 +13175,7 @@
         <v>266</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I349" s="1">
         <v>45616</v>
@@ -13208,7 +13207,7 @@
         <v>257</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I350" s="1">
         <v>45616</v>
@@ -13240,7 +13239,7 @@
         <v>269</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I351" s="1">
         <v>45616</v>
@@ -13336,7 +13335,7 @@
         <v>285</v>
       </c>
       <c r="H354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I354" s="1">
         <v>45616</v>
@@ -13400,7 +13399,7 @@
         <v>269</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I356" s="1">
         <v>45616</v>
@@ -13528,7 +13527,7 @@
         <v>36</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I360" s="1">
         <v>45616</v>
@@ -13592,7 +13591,7 @@
         <v>179</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I362" s="1">
         <v>45616</v>
@@ -13656,7 +13655,7 @@
         <v>266</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I364" s="1">
         <v>45616</v>
@@ -13688,7 +13687,7 @@
         <v>257</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I365" s="1">
         <v>45616</v>
@@ -13720,7 +13719,7 @@
         <v>36</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I366" s="1">
         <v>45616</v>
@@ -13912,7 +13911,7 @@
         <v>299</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I372" s="1">
         <v>45616</v>
@@ -13944,7 +13943,7 @@
         <v>247</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I373" s="1">
         <v>45616</v>
@@ -13976,7 +13975,7 @@
         <v>301</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I374" s="1">
         <v>45616</v>
@@ -14008,7 +14007,7 @@
         <v>179</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I375" s="1">
         <v>45616</v>
@@ -14040,7 +14039,7 @@
         <v>304</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I376" s="1">
         <v>45616</v>
@@ -14072,7 +14071,7 @@
         <v>306</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I377" s="1">
         <v>45616</v>
@@ -14104,7 +14103,7 @@
         <v>36</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I378" s="1">
         <v>45616</v>
@@ -14136,7 +14135,7 @@
         <v>79</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I379" s="1">
         <v>45616</v>
@@ -14168,7 +14167,7 @@
         <v>247</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I380" s="1">
         <v>45616</v>
@@ -14200,7 +14199,7 @@
         <v>266</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I381" s="1">
         <v>45616</v>
@@ -14232,7 +14231,7 @@
         <v>36</v>
       </c>
       <c r="H382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I382" s="1">
         <v>45616</v>
@@ -14264,7 +14263,7 @@
         <v>266</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I383" s="1">
         <v>45616</v>
@@ -14296,7 +14295,7 @@
         <v>309</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I384" s="1">
         <v>45616</v>
@@ -14328,7 +14327,7 @@
         <v>266</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I385" s="1">
         <v>45616</v>
@@ -14360,7 +14359,7 @@
         <v>310</v>
       </c>
       <c r="H386">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I386" s="1">
         <v>45616</v>
@@ -14392,7 +14391,7 @@
         <v>311</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I387" s="1">
         <v>45616</v>
@@ -14424,7 +14423,7 @@
         <v>247</v>
       </c>
       <c r="H388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I388" s="1">
         <v>45616</v>
@@ -14456,7 +14455,7 @@
         <v>314</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I389" s="1">
         <v>45616</v>
@@ -14488,7 +14487,7 @@
         <v>316</v>
       </c>
       <c r="H390">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I390" s="1">
         <v>45616</v>
@@ -14520,7 +14519,7 @@
         <v>316</v>
       </c>
       <c r="H391">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I391" s="1">
         <v>45616</v>
@@ -14552,7 +14551,7 @@
         <v>317</v>
       </c>
       <c r="H392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I392" s="1">
         <v>45616</v>
@@ -14584,7 +14583,7 @@
         <v>144</v>
       </c>
       <c r="H393">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I393" s="1">
         <v>45616</v>
@@ -14616,7 +14615,7 @@
         <v>318</v>
       </c>
       <c r="H394">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I394" s="1">
         <v>45616</v>
@@ -14648,7 +14647,7 @@
         <v>318</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I395" s="1">
         <v>45616</v>
@@ -14680,7 +14679,7 @@
         <v>135</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I396" s="1">
         <v>45616</v>
@@ -14712,7 +14711,7 @@
         <v>120</v>
       </c>
       <c r="H397">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I397" s="1">
         <v>45616</v>
@@ -14744,7 +14743,7 @@
         <v>45</v>
       </c>
       <c r="H398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I398" s="1">
         <v>45616</v>
@@ -14776,7 +14775,7 @@
         <v>132</v>
       </c>
       <c r="H399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I399" s="1">
         <v>45616</v>
@@ -14808,7 +14807,7 @@
         <v>321</v>
       </c>
       <c r="H400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I400" s="1">
         <v>45616</v>
@@ -14840,7 +14839,7 @@
         <v>323</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I401" s="1">
         <v>45616</v>
@@ -14872,7 +14871,7 @@
         <v>85</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I402" s="1">
         <v>45616</v>
@@ -14904,7 +14903,7 @@
         <v>45</v>
       </c>
       <c r="H403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I403" s="1">
         <v>45616</v>
@@ -14936,7 +14935,7 @@
         <v>140</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404" s="1">
         <v>45616</v>
@@ -14968,7 +14967,7 @@
         <v>327</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405" s="1">
         <v>45616</v>
@@ -15000,7 +14999,7 @@
         <v>120</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I406" s="1">
         <v>45616</v>
@@ -15032,7 +15031,7 @@
         <v>161</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I407" s="1">
         <v>45616</v>
@@ -15064,7 +15063,7 @@
         <v>329</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I408" s="1">
         <v>45616</v>
@@ -15096,7 +15095,7 @@
         <v>36</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I409" s="1">
         <v>45616</v>
@@ -15128,7 +15127,7 @@
         <v>42</v>
       </c>
       <c r="H410">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I410" s="1">
         <v>45616</v>
@@ -15160,7 +15159,7 @@
         <v>42</v>
       </c>
       <c r="H411">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I411" s="1">
         <v>45616</v>
@@ -15192,7 +15191,7 @@
         <v>284</v>
       </c>
       <c r="H412">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I412" s="1">
         <v>45616</v>
@@ -15224,7 +15223,7 @@
         <v>269</v>
       </c>
       <c r="H413">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I413" s="1">
         <v>45616</v>
@@ -15256,7 +15255,7 @@
         <v>269</v>
       </c>
       <c r="H414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I414" s="1">
         <v>45616</v>
@@ -15288,7 +15287,7 @@
         <v>269</v>
       </c>
       <c r="H415">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I415" s="1">
         <v>45616</v>
@@ -15320,7 +15319,7 @@
         <v>40</v>
       </c>
       <c r="H416">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I416" s="1">
         <v>45616</v>
@@ -15352,7 +15351,7 @@
         <v>120</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I417" s="1">
         <v>45616</v>
@@ -15384,7 +15383,7 @@
         <v>132</v>
       </c>
       <c r="H418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I418" s="1">
         <v>45616</v>
@@ -15416,7 +15415,7 @@
         <v>141</v>
       </c>
       <c r="H419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I419" s="1">
         <v>45616</v>
@@ -15448,7 +15447,7 @@
         <v>327</v>
       </c>
       <c r="H420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I420" s="1">
         <v>45616</v>
@@ -15480,7 +15479,7 @@
         <v>141</v>
       </c>
       <c r="H421">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I421" s="1">
         <v>45616</v>
@@ -15544,7 +15543,7 @@
         <v>269</v>
       </c>
       <c r="H423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I423" s="1">
         <v>45616</v>
@@ -15608,7 +15607,7 @@
         <v>75</v>
       </c>
       <c r="H425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I425" s="1">
         <v>45616</v>
@@ -15640,7 +15639,7 @@
         <v>269</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I426" s="1">
         <v>45616</v>
@@ -15672,7 +15671,7 @@
         <v>132</v>
       </c>
       <c r="H427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I427" s="1">
         <v>45616</v>
@@ -15704,7 +15703,7 @@
         <v>161</v>
       </c>
       <c r="H428">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I428" s="1">
         <v>45616</v>
@@ -15736,7 +15735,7 @@
         <v>269</v>
       </c>
       <c r="H429">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I429" s="1">
         <v>45616</v>
@@ -15768,7 +15767,7 @@
         <v>327</v>
       </c>
       <c r="H430">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I430" s="1">
         <v>45616</v>
@@ -15800,7 +15799,7 @@
         <v>132</v>
       </c>
       <c r="H431">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I431" s="1">
         <v>45616</v>
@@ -15832,7 +15831,7 @@
         <v>36</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I432" s="1">
         <v>45616</v>
@@ -15864,7 +15863,7 @@
         <v>336</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I433" s="1">
         <v>45616</v>
@@ -15896,7 +15895,7 @@
         <v>85</v>
       </c>
       <c r="H434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I434" s="1">
         <v>45616</v>
@@ -15928,7 +15927,7 @@
         <v>36</v>
       </c>
       <c r="H435">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I435" s="1">
         <v>45616</v>
@@ -15960,7 +15959,7 @@
         <v>299</v>
       </c>
       <c r="H436">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I436" s="1">
         <v>45616</v>
@@ -15992,7 +15991,7 @@
         <v>336</v>
       </c>
       <c r="H437">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I437" s="1">
         <v>45616</v>
@@ -16024,7 +16023,7 @@
         <v>161</v>
       </c>
       <c r="H438">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I438" s="1">
         <v>45616</v>
@@ -16056,7 +16055,7 @@
         <v>339</v>
       </c>
       <c r="H439">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I439" s="1">
         <v>45616</v>
@@ -16088,7 +16087,7 @@
         <v>339</v>
       </c>
       <c r="H440">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I440" s="1">
         <v>45616</v>
@@ -16120,7 +16119,7 @@
         <v>36</v>
       </c>
       <c r="H441">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I441" s="1">
         <v>45616</v>
@@ -16152,7 +16151,7 @@
         <v>257</v>
       </c>
       <c r="H442">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I442" s="1">
         <v>45616</v>
@@ -16184,7 +16183,7 @@
         <v>79</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I443" s="1">
         <v>45616</v>
@@ -16216,7 +16215,7 @@
         <v>26</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I444" s="1">
         <v>45616</v>
@@ -16248,7 +16247,7 @@
         <v>36</v>
       </c>
       <c r="H445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I445" s="1">
         <v>45616</v>
@@ -16280,7 +16279,7 @@
         <v>36</v>
       </c>
       <c r="H446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I446" s="1">
         <v>45616</v>
@@ -16312,7 +16311,7 @@
         <v>40</v>
       </c>
       <c r="H447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I447" s="1">
         <v>45616</v>
@@ -16344,7 +16343,7 @@
         <v>342</v>
       </c>
       <c r="H448">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I448" s="1">
         <v>45616</v>
@@ -16376,7 +16375,7 @@
         <v>343</v>
       </c>
       <c r="H449">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I449" s="1">
         <v>45616</v>
@@ -16440,7 +16439,7 @@
         <v>266</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I451" s="1">
         <v>45616</v>
@@ -16472,7 +16471,7 @@
         <v>75</v>
       </c>
       <c r="H452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I452" s="1">
         <v>45616</v>
@@ -16504,7 +16503,7 @@
         <v>40</v>
       </c>
       <c r="H453">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I453" s="1">
         <v>45616</v>
@@ -16536,7 +16535,7 @@
         <v>247</v>
       </c>
       <c r="H454">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I454" s="1">
         <v>45616</v>
@@ -16568,7 +16567,7 @@
         <v>348</v>
       </c>
       <c r="H455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I455" s="1">
         <v>45616</v>
@@ -16600,7 +16599,7 @@
         <v>140</v>
       </c>
       <c r="H456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I456" s="1">
         <v>45616</v>
@@ -16632,7 +16631,7 @@
         <v>266</v>
       </c>
       <c r="H457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I457" s="1">
         <v>45616</v>
@@ -16664,7 +16663,7 @@
         <v>53</v>
       </c>
       <c r="H458">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I458" s="1">
         <v>45616</v>
@@ -16696,7 +16695,7 @@
         <v>257</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I459" s="1">
         <v>45616</v>
@@ -16728,7 +16727,7 @@
         <v>269</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I460" s="1">
         <v>45616</v>
@@ -16760,7 +16759,7 @@
         <v>269</v>
       </c>
       <c r="H461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I461" s="1">
         <v>45616</v>
@@ -16792,7 +16791,7 @@
         <v>269</v>
       </c>
       <c r="H462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I462" s="1">
         <v>45616</v>
@@ -16824,7 +16823,7 @@
         <v>269</v>
       </c>
       <c r="H463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I463" s="1">
         <v>45616</v>
@@ -16856,7 +16855,7 @@
         <v>40</v>
       </c>
       <c r="H464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I464" s="1">
         <v>45616</v>
@@ -16888,7 +16887,7 @@
         <v>247</v>
       </c>
       <c r="H465">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I465" s="1">
         <v>45616</v>
@@ -16920,7 +16919,7 @@
         <v>353</v>
       </c>
       <c r="H466">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I466" s="1">
         <v>45616</v>
@@ -16952,7 +16951,7 @@
         <v>40</v>
       </c>
       <c r="H467">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I467" s="1">
         <v>45616</v>
@@ -16984,7 +16983,7 @@
         <v>355</v>
       </c>
       <c r="H468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I468" s="1">
         <v>45616</v>
@@ -17016,7 +17015,7 @@
         <v>266</v>
       </c>
       <c r="H469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I469" s="1">
         <v>45616</v>
@@ -17048,7 +17047,7 @@
         <v>257</v>
       </c>
       <c r="H470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I470" s="1">
         <v>45616</v>
@@ -17080,7 +17079,7 @@
         <v>269</v>
       </c>
       <c r="H471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I471" s="1">
         <v>45616</v>
@@ -17144,7 +17143,7 @@
         <v>36</v>
       </c>
       <c r="H473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I473" s="1">
         <v>45616</v>
@@ -17176,7 +17175,7 @@
         <v>269</v>
       </c>
       <c r="H474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I474" s="1">
         <v>45616</v>
@@ -17208,7 +17207,7 @@
         <v>269</v>
       </c>
       <c r="H475">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I475" s="1">
         <v>45616</v>
@@ -17240,7 +17239,7 @@
         <v>348</v>
       </c>
       <c r="H476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I476" s="1">
         <v>45616</v>
@@ -17272,7 +17271,7 @@
         <v>247</v>
       </c>
       <c r="H477">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I477" s="1">
         <v>45616</v>
